--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Clcf1-Il6st.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Clcf1-Il6st.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.610331</v>
+        <v>1.758258666666666</v>
       </c>
       <c r="H2">
-        <v>1.830993</v>
+        <v>5.274775999999999</v>
       </c>
       <c r="I2">
-        <v>0.06059696746595619</v>
+        <v>0.1132279568112417</v>
       </c>
       <c r="J2">
-        <v>0.06059696746595618</v>
+        <v>0.1132279568112417</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>44.01778300000001</v>
+        <v>73.202511</v>
       </c>
       <c r="N2">
-        <v>132.053349</v>
+        <v>219.607533</v>
       </c>
       <c r="O2">
-        <v>0.253483683026081</v>
+        <v>0.3264904632507938</v>
       </c>
       <c r="P2">
-        <v>0.253483683026081</v>
+        <v>0.3264904632507938</v>
       </c>
       <c r="Q2">
-        <v>26.865417516173</v>
+        <v>128.708949387512</v>
       </c>
       <c r="R2">
-        <v>241.788757645557</v>
+        <v>1158.380544487608</v>
       </c>
       <c r="S2">
-        <v>0.01536034249348218</v>
+        <v>0.03696784807224317</v>
       </c>
       <c r="T2">
-        <v>0.01536034249348218</v>
+        <v>0.03696784807224317</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.610331</v>
+        <v>1.758258666666666</v>
       </c>
       <c r="H3">
-        <v>1.830993</v>
+        <v>5.274775999999999</v>
       </c>
       <c r="I3">
-        <v>0.06059696746595619</v>
+        <v>0.1132279568112417</v>
       </c>
       <c r="J3">
-        <v>0.06059696746595618</v>
+        <v>0.1132279568112417</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>299.30185</v>
       </c>
       <c r="O3">
-        <v>0.5745264004968146</v>
+        <v>0.4449719839907295</v>
       </c>
       <c r="P3">
-        <v>0.5745264004968147</v>
+        <v>0.4449719839907295</v>
       </c>
       <c r="Q3">
-        <v>60.89106580411666</v>
+        <v>175.4166905706222</v>
       </c>
       <c r="R3">
-        <v>548.01959223705</v>
+        <v>1578.7502151356</v>
       </c>
       <c r="S3">
-        <v>0.03481455759923839</v>
+        <v>0.05038326858551485</v>
       </c>
       <c r="T3">
-        <v>0.03481455759923839</v>
+        <v>0.05038326858551485</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.610331</v>
+        <v>1.758258666666666</v>
       </c>
       <c r="H4">
-        <v>1.830993</v>
+        <v>5.274775999999999</v>
       </c>
       <c r="I4">
-        <v>0.06059696746595619</v>
+        <v>0.1132279568112417</v>
       </c>
       <c r="J4">
-        <v>0.06059696746595618</v>
+        <v>0.1132279568112417</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>19.01418566666667</v>
+        <v>39.54025133333334</v>
       </c>
       <c r="N4">
-        <v>57.042557</v>
+        <v>118.620754</v>
       </c>
       <c r="O4">
-        <v>0.1094963327100864</v>
+        <v>0.1763534446908907</v>
       </c>
       <c r="P4">
-        <v>0.1094963327100864</v>
+        <v>0.1763534446908907</v>
       </c>
       <c r="Q4">
-        <v>11.60494695212233</v>
+        <v>69.52198958901155</v>
       </c>
       <c r="R4">
-        <v>104.444522569101</v>
+        <v>625.6979063011039</v>
       </c>
       <c r="S4">
-        <v>0.006635145710874621</v>
+        <v>0.01996814021897387</v>
       </c>
       <c r="T4">
-        <v>0.00663514571087462</v>
+        <v>0.01996814021897387</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.610331</v>
+        <v>1.758258666666666</v>
       </c>
       <c r="H5">
-        <v>1.830993</v>
+        <v>5.274775999999999</v>
       </c>
       <c r="I5">
-        <v>0.06059696746595619</v>
+        <v>0.1132279568112417</v>
       </c>
       <c r="J5">
-        <v>0.06059696746595618</v>
+        <v>0.1132279568112417</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.852095</v>
+        <v>11.70021233333333</v>
       </c>
       <c r="N5">
-        <v>32.556285</v>
+        <v>35.100637</v>
       </c>
       <c r="O5">
-        <v>0.06249358376701794</v>
+        <v>0.05218410806758597</v>
       </c>
       <c r="P5">
-        <v>0.06249358376701795</v>
+        <v>0.05218410806758598</v>
       </c>
       <c r="Q5">
-        <v>6.623369993444999</v>
+        <v>20.57199973692355</v>
       </c>
       <c r="R5">
-        <v>59.610329941005</v>
+        <v>185.147997632312</v>
       </c>
       <c r="S5">
-        <v>0.003786921662360994</v>
+        <v>0.005908699934509792</v>
       </c>
       <c r="T5">
-        <v>0.003786921662360994</v>
+        <v>0.005908699934509793</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>8.071165000000001</v>
       </c>
       <c r="I6">
-        <v>0.2671163259047765</v>
+        <v>0.1732550390834427</v>
       </c>
       <c r="J6">
-        <v>0.2671163259047764</v>
+        <v>0.1732550390834427</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>44.01778300000001</v>
+        <v>73.202511</v>
       </c>
       <c r="N6">
-        <v>132.053349</v>
+        <v>219.607533</v>
       </c>
       <c r="O6">
-        <v>0.253483683026081</v>
+        <v>0.3264904632507938</v>
       </c>
       <c r="P6">
-        <v>0.253483683026081</v>
+        <v>0.3264904632507938</v>
       </c>
       <c r="Q6">
-        <v>118.4249298423984</v>
+        <v>196.943181565105</v>
       </c>
       <c r="R6">
-        <v>1065.824368581585</v>
+        <v>1772.488634085945</v>
       </c>
       <c r="S6">
-        <v>0.06770963008673772</v>
+        <v>0.05656611797088759</v>
       </c>
       <c r="T6">
-        <v>0.06770963008673771</v>
+        <v>0.0565661179708876</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>8.071165000000001</v>
       </c>
       <c r="I7">
-        <v>0.2671163259047765</v>
+        <v>0.1732550390834427</v>
       </c>
       <c r="J7">
-        <v>0.2671163259047764</v>
+        <v>0.1732550390834427</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>299.30185</v>
       </c>
       <c r="O7">
-        <v>0.5745264004968146</v>
+        <v>0.4449719839907295</v>
       </c>
       <c r="P7">
-        <v>0.5745264004968147</v>
+        <v>0.4449719839907295</v>
       </c>
       <c r="Q7">
         <v>268.4127351283611</v>
@@ -883,10 +883,10 @@
         <v>2415.71461615525</v>
       </c>
       <c r="S7">
-        <v>0.1534653812360053</v>
+        <v>0.07709363847735087</v>
       </c>
       <c r="T7">
-        <v>0.1534653812360053</v>
+        <v>0.07709363847735087</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>8.071165000000001</v>
       </c>
       <c r="I8">
-        <v>0.2671163259047765</v>
+        <v>0.1732550390834427</v>
       </c>
       <c r="J8">
-        <v>0.2671163259047764</v>
+        <v>0.1732550390834427</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>19.01418566666667</v>
+        <v>39.54025133333334</v>
       </c>
       <c r="N8">
-        <v>57.042557</v>
+        <v>118.620754</v>
       </c>
       <c r="O8">
-        <v>0.1094963327100864</v>
+        <v>0.1763534446908907</v>
       </c>
       <c r="P8">
-        <v>0.1094963327100864</v>
+        <v>0.1763534446908907</v>
       </c>
       <c r="Q8">
-        <v>51.15554328543389</v>
+        <v>106.3786308842678</v>
       </c>
       <c r="R8">
-        <v>460.3998895689051</v>
+        <v>957.4076779584101</v>
       </c>
       <c r="S8">
-        <v>0.02924825809356528</v>
+        <v>0.03055412295242002</v>
       </c>
       <c r="T8">
-        <v>0.02924825809356527</v>
+        <v>0.03055412295242002</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>8.071165000000001</v>
       </c>
       <c r="I9">
-        <v>0.2671163259047765</v>
+        <v>0.1732550390834427</v>
       </c>
       <c r="J9">
-        <v>0.2671163259047764</v>
+        <v>0.1732550390834427</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>10.852095</v>
+        <v>11.70021233333333</v>
       </c>
       <c r="N9">
-        <v>32.556285</v>
+        <v>35.100637</v>
       </c>
       <c r="O9">
-        <v>0.06249358376701794</v>
+        <v>0.05218410806758597</v>
       </c>
       <c r="P9">
-        <v>0.06249358376701795</v>
+        <v>0.05218410806758598</v>
       </c>
       <c r="Q9">
-        <v>29.196349780225</v>
+        <v>31.47811475912278</v>
       </c>
       <c r="R9">
-        <v>262.767148022025</v>
+        <v>283.303032832105</v>
       </c>
       <c r="S9">
-        <v>0.01669305648846821</v>
+        <v>0.009041159682784204</v>
       </c>
       <c r="T9">
-        <v>0.01669305648846821</v>
+        <v>0.009041159682784206</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.522893333333333</v>
+        <v>9.938311666666667</v>
       </c>
       <c r="H10">
-        <v>16.56868</v>
+        <v>29.814935</v>
       </c>
       <c r="I10">
-        <v>0.5483427642344013</v>
+        <v>0.6400052196548212</v>
       </c>
       <c r="J10">
-        <v>0.5483427642344012</v>
+        <v>0.640005219654821</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>44.01778300000001</v>
+        <v>73.202511</v>
       </c>
       <c r="N10">
-        <v>132.053349</v>
+        <v>219.607533</v>
       </c>
       <c r="O10">
-        <v>0.253483683026081</v>
+        <v>0.3264904632507938</v>
       </c>
       <c r="P10">
-        <v>0.253483683026081</v>
+        <v>0.3264904632507938</v>
       </c>
       <c r="Q10">
-        <v>243.1055202788134</v>
+        <v>727.5093691005951</v>
       </c>
       <c r="R10">
-        <v>2187.949682509321</v>
+        <v>6547.584321905355</v>
       </c>
       <c r="S10">
-        <v>0.1389959434388381</v>
+        <v>0.2089556006480286</v>
       </c>
       <c r="T10">
-        <v>0.138995943438838</v>
+        <v>0.2089556006480286</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>5.522893333333333</v>
+        <v>9.938311666666667</v>
       </c>
       <c r="H11">
-        <v>16.56868</v>
+        <v>29.814935</v>
       </c>
       <c r="I11">
-        <v>0.5483427642344013</v>
+        <v>0.6400052196548212</v>
       </c>
       <c r="J11">
-        <v>0.5483427642344012</v>
+        <v>0.640005219654821</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>299.30185</v>
       </c>
       <c r="O11">
-        <v>0.5745264004968146</v>
+        <v>0.4449719839907295</v>
       </c>
       <c r="P11">
-        <v>0.5745264004968147</v>
+        <v>0.4449719839907295</v>
       </c>
       <c r="Q11">
-        <v>551.0040640064444</v>
+        <v>991.5183559033056</v>
       </c>
       <c r="R11">
-        <v>4959.036576058</v>
+        <v>8923.665203129751</v>
       </c>
       <c r="S11">
-        <v>0.315037394574064</v>
+        <v>0.2847843923542284</v>
       </c>
       <c r="T11">
-        <v>0.315037394574064</v>
+        <v>0.2847843923542284</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.522893333333333</v>
+        <v>9.938311666666667</v>
       </c>
       <c r="H12">
-        <v>16.56868</v>
+        <v>29.814935</v>
       </c>
       <c r="I12">
-        <v>0.5483427642344013</v>
+        <v>0.6400052196548212</v>
       </c>
       <c r="J12">
-        <v>0.5483427642344012</v>
+        <v>0.640005219654821</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>19.01418566666667</v>
+        <v>39.54025133333334</v>
       </c>
       <c r="N12">
-        <v>57.042557</v>
+        <v>118.620754</v>
       </c>
       <c r="O12">
-        <v>0.1094963327100864</v>
+        <v>0.1763534446908907</v>
       </c>
       <c r="P12">
-        <v>0.1094963327100864</v>
+        <v>0.1763534446908907</v>
       </c>
       <c r="Q12">
-        <v>105.0133192571955</v>
+        <v>392.9633411289989</v>
       </c>
       <c r="R12">
-        <v>945.1198733147601</v>
+        <v>3536.67007016099</v>
       </c>
       <c r="S12">
-        <v>0.06004152175177847</v>
+        <v>0.1128671251062779</v>
       </c>
       <c r="T12">
-        <v>0.06004152175177847</v>
+        <v>0.1128671251062778</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>5.522893333333333</v>
+        <v>9.938311666666667</v>
       </c>
       <c r="H13">
-        <v>16.56868</v>
+        <v>29.814935</v>
       </c>
       <c r="I13">
-        <v>0.5483427642344013</v>
+        <v>0.6400052196548212</v>
       </c>
       <c r="J13">
-        <v>0.5483427642344012</v>
+        <v>0.640005219654821</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>10.852095</v>
+        <v>11.70021233333333</v>
       </c>
       <c r="N13">
-        <v>32.556285</v>
+        <v>35.100637</v>
       </c>
       <c r="O13">
-        <v>0.06249358376701794</v>
+        <v>0.05218410806758597</v>
       </c>
       <c r="P13">
-        <v>0.06249358376701795</v>
+        <v>0.05218410806758598</v>
       </c>
       <c r="Q13">
-        <v>59.9349631282</v>
+        <v>116.2803567348439</v>
       </c>
       <c r="R13">
-        <v>539.4146681538001</v>
+        <v>1046.523210613595</v>
       </c>
       <c r="S13">
-        <v>0.03426790446972073</v>
+        <v>0.03339810154628629</v>
       </c>
       <c r="T13">
-        <v>0.03426790446972073</v>
+        <v>0.03339810154628628</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.24836</v>
+        <v>1.141526666666667</v>
       </c>
       <c r="H14">
-        <v>3.74508</v>
+        <v>3.42458</v>
       </c>
       <c r="I14">
-        <v>0.1239439423948662</v>
+        <v>0.0735117844504946</v>
       </c>
       <c r="J14">
-        <v>0.1239439423948662</v>
+        <v>0.07351178445049458</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>44.01778300000001</v>
+        <v>73.202511</v>
       </c>
       <c r="N14">
-        <v>132.053349</v>
+        <v>219.607533</v>
       </c>
       <c r="O14">
-        <v>0.253483683026081</v>
+        <v>0.3264904632507938</v>
       </c>
       <c r="P14">
-        <v>0.253483683026081</v>
+        <v>0.3264904632507938</v>
       </c>
       <c r="Q14">
-        <v>54.95003958588001</v>
+        <v>83.56261837346</v>
       </c>
       <c r="R14">
-        <v>494.5503562729201</v>
+        <v>752.0635653611399</v>
       </c>
       <c r="S14">
-        <v>0.03141776700702311</v>
+        <v>0.02400089655963448</v>
       </c>
       <c r="T14">
-        <v>0.0314177670070231</v>
+        <v>0.02400089655963448</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.24836</v>
+        <v>1.141526666666667</v>
       </c>
       <c r="H15">
-        <v>3.74508</v>
+        <v>3.42458</v>
       </c>
       <c r="I15">
-        <v>0.1239439423948662</v>
+        <v>0.0735117844504946</v>
       </c>
       <c r="J15">
-        <v>0.1239439423948662</v>
+        <v>0.07351178445049458</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>299.30185</v>
       </c>
       <c r="O15">
-        <v>0.5745264004968146</v>
+        <v>0.4449719839907295</v>
       </c>
       <c r="P15">
-        <v>0.5745264004968147</v>
+        <v>0.4449719839907295</v>
       </c>
       <c r="Q15">
-        <v>124.545485822</v>
+        <v>113.8870143858889</v>
       </c>
       <c r="R15">
-        <v>1120.909372398</v>
+        <v>1024.983129473</v>
       </c>
       <c r="S15">
-        <v>0.071209067087507</v>
+        <v>0.03271068457363544</v>
       </c>
       <c r="T15">
-        <v>0.071209067087507</v>
+        <v>0.03271068457363543</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.24836</v>
+        <v>1.141526666666667</v>
       </c>
       <c r="H16">
-        <v>3.74508</v>
+        <v>3.42458</v>
       </c>
       <c r="I16">
-        <v>0.1239439423948662</v>
+        <v>0.0735117844504946</v>
       </c>
       <c r="J16">
-        <v>0.1239439423948662</v>
+        <v>0.07351178445049458</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>19.01418566666667</v>
+        <v>39.54025133333334</v>
       </c>
       <c r="N16">
-        <v>57.042557</v>
+        <v>118.620754</v>
       </c>
       <c r="O16">
-        <v>0.1094963327100864</v>
+        <v>0.1763534446908907</v>
       </c>
       <c r="P16">
-        <v>0.1094963327100864</v>
+        <v>0.1763534446908907</v>
       </c>
       <c r="Q16">
-        <v>23.73654881884</v>
+        <v>45.13625130370222</v>
       </c>
       <c r="R16">
-        <v>213.62893936956</v>
+        <v>406.22626173332</v>
       </c>
       <c r="S16">
-        <v>0.01357140715386805</v>
+        <v>0.01296405641321898</v>
       </c>
       <c r="T16">
-        <v>0.01357140715386805</v>
+        <v>0.01296405641321898</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.24836</v>
+        <v>1.141526666666667</v>
       </c>
       <c r="H17">
-        <v>3.74508</v>
+        <v>3.42458</v>
       </c>
       <c r="I17">
-        <v>0.1239439423948662</v>
+        <v>0.0735117844504946</v>
       </c>
       <c r="J17">
-        <v>0.1239439423948662</v>
+        <v>0.07351178445049458</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>10.852095</v>
+        <v>11.70021233333333</v>
       </c>
       <c r="N17">
-        <v>32.556285</v>
+        <v>35.100637</v>
       </c>
       <c r="O17">
-        <v>0.06249358376701794</v>
+        <v>0.05218410806758597</v>
       </c>
       <c r="P17">
-        <v>0.06249358376701795</v>
+        <v>0.05218410806758598</v>
       </c>
       <c r="Q17">
-        <v>13.5473213142</v>
+        <v>13.35610438416222</v>
       </c>
       <c r="R17">
-        <v>121.9258918278</v>
+        <v>120.20493945746</v>
       </c>
       <c r="S17">
-        <v>0.007745701146468016</v>
+        <v>0.003836146904005696</v>
       </c>
       <c r="T17">
-        <v>0.007745701146468016</v>
+        <v>0.003836146904005696</v>
       </c>
     </row>
   </sheetData>
